--- a/kontr-eks.xlsx
+++ b/kontr-eks.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/nils_kvilvang_inn_no/Documents/Undervisning/SPC_book/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_CC60FDCE8F79A8D366075C52F356EAB2E8EDA7A8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4918CA82-F93A-44B7-9FBC-1953CE624A23}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,15 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -83,19 +63,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -137,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,141 +350,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>-1.0350746717102219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.48829781087069601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.86322332181185024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.56744467482543726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.30131922236579561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>-1.035074671710222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.488297810870696</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.8632233218118502</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.5674446748254373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.3013192223657956</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>-0.1421342143888025</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>-0.84681186314823353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="8">
+      <c r="A8">
+        <v>-0.8468118631482335</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>-0.2230419339341311</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>-1.3925504963904289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>-0.34787654355866687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>-0.69956709733277922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="10">
+      <c r="A10">
+        <v>-1.392550496390429</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>-0.3478765435586669</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>-0.6995670973327792</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>1.057411736971505</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>-8.8990865281858858E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.96867549295918975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.50786438269741918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="14">
+      <c r="A14">
+        <v>-0.08899086528185886</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.9686754929591898</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.5078643826974192</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
         <v>-1.364366435695179</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0.44119352123918842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>-1.4143638793432809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="18">
+      <c r="A18">
+        <v>0.4411935212391884</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>-1.414363879343281</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
         <v>-0.2335265138989793</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>0.49661255123431991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>-0.81997909789051215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>-0.56059995050865263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>-0.54102412704401093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>-1.3601428029840159</v>
+    <row r="21">
+      <c r="A21">
+        <v>0.4966125512343199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>-0.8199790978905122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-0.5605999505086526</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>-0.5410241270440109</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-1.360142802984016</v>
       </c>
     </row>
   </sheetData>
